--- a/simulations/cleaned_inclusion_exclusion/Bos _2018 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Bos _2018 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.3259532595325954</v>
+        <v>0.2980729807298073</v>
       </c>
       <c r="I3">
-        <v>0.5230073952341824</v>
+        <v>0.5506984387838948</v>
       </c>
       <c r="J3">
         <v>-0.1</v>
       </c>
       <c r="K3">
-        <v>2551.5</v>
+        <v>2686.3</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>9</v>
       </c>
       <c r="Q3">
-        <v>2513</v>
+        <v>2649</v>
       </c>
       <c r="R3">
-        <v>2521</v>
+        <v>2657</v>
       </c>
       <c r="S3">
-        <v>2531</v>
+        <v>2665</v>
       </c>
       <c r="T3">
-        <v>2542</v>
+        <v>2676</v>
       </c>
       <c r="U3">
-        <v>2548</v>
+        <v>2684</v>
       </c>
       <c r="V3">
-        <v>2355</v>
+        <v>2219</v>
       </c>
       <c r="W3">
-        <v>2347</v>
+        <v>2211</v>
       </c>
       <c r="X3">
-        <v>2337</v>
+        <v>2203</v>
       </c>
       <c r="Y3">
-        <v>2326</v>
+        <v>2192</v>
       </c>
       <c r="Z3">
-        <v>2320</v>
+        <v>2184</v>
       </c>
       <c r="AA3">
         <v>9</v>
@@ -800,19 +800,19 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.483772</v>
+        <v>0.455834</v>
       </c>
       <c r="AG3">
-        <v>0.482128</v>
+        <v>0.454191</v>
       </c>
       <c r="AH3">
-        <v>0.480074</v>
+        <v>0.452547</v>
       </c>
       <c r="AI3">
-        <v>0.477814</v>
+        <v>0.450288</v>
       </c>
       <c r="AJ3">
-        <v>0.476582</v>
+        <v>0.448644</v>
       </c>
     </row>
   </sheetData>

--- a/simulations/cleaned_inclusion_exclusion/Bos _2018 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Bos _2018 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.2980729807298073</v>
+        <v>0.8261582615826158</v>
       </c>
       <c r="I3">
-        <v>0.5506984387838948</v>
+        <v>0.01497534921939195</v>
       </c>
       <c r="J3">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
       <c r="K3">
-        <v>2686.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>9</v>
       </c>
       <c r="Q3">
-        <v>2649</v>
+        <v>20</v>
       </c>
       <c r="R3">
-        <v>2657</v>
+        <v>53</v>
       </c>
       <c r="S3">
-        <v>2665</v>
+        <v>65</v>
       </c>
       <c r="T3">
-        <v>2676</v>
+        <v>78</v>
       </c>
       <c r="U3">
-        <v>2684</v>
+        <v>108</v>
       </c>
       <c r="V3">
-        <v>2219</v>
+        <v>4848</v>
       </c>
       <c r="W3">
-        <v>2211</v>
+        <v>4815</v>
       </c>
       <c r="X3">
-        <v>2203</v>
+        <v>4803</v>
       </c>
       <c r="Y3">
-        <v>2192</v>
+        <v>4790</v>
       </c>
       <c r="Z3">
-        <v>2184</v>
+        <v>4760</v>
       </c>
       <c r="AA3">
         <v>9</v>
@@ -800,19 +800,19 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.455834</v>
+        <v>0.995892</v>
       </c>
       <c r="AG3">
-        <v>0.454191</v>
+        <v>0.989113</v>
       </c>
       <c r="AH3">
-        <v>0.452547</v>
+        <v>0.9866470000000001</v>
       </c>
       <c r="AI3">
-        <v>0.450288</v>
+        <v>0.983977</v>
       </c>
       <c r="AJ3">
-        <v>0.448644</v>
+        <v>0.977814</v>
       </c>
     </row>
   </sheetData>
